--- a/registros_curso.xlsx
+++ b/registros_curso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Primero</t>
+          <t>hola mundo</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cuarto</t>
+          <t>Full Stack</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Master</t>
+          <t>Graficación</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -539,6 +539,175 @@
       </c>
       <c r="C8" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lenguajes y Automatas</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>luz</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IA Kinder</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Octavo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Primaria</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>luz Esp</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Espinoza</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Espinoza</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Estructura de Datos</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>OOP</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>73</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>99</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>luz</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
